--- a/public/cohort/fileExcel/xlsxIN/IF PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxIN/IF PTA en onderwijsprogramma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgnl-my.sharepoint.com/personal/vnr_csg_nl/Documents/SCHOOLdocumenten/CORONA/PTO PTA/cohortproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_CB8757590761F33AA8A28950CE690118B9505D59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD50EBD-4FA6-4743-9757-0B3E63AE2F33}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_CB8757590761F33AA8A28950CE690118B9505D59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C7F217-9A63-480F-B876-CC3821D9D95D}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="100">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44354.697567476855</v>
+        <v>44363.381031365738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44354.697567476855</v>
+        <v>44363.381031365738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44354.697567476855</v>
+        <v>44363.381031365738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9725,9 +9725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9959,32 +9959,24 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="23">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="39">
-        <v>2</v>
-      </c>
+      <c r="G6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="25" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="39"/>
       <c r="M6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="40">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" s="40"/>
       <c r="O6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P6" s="28"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -10358,7 +10350,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44354.697567476855</v>
+        <v>44363.381031365738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -12778,7 +12770,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44354.697567476855</v>
+        <v>44363.381031365738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -15184,7 +15176,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44354.697567476855</v>
+        <v>44363.381031365738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17622,7 +17614,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44354.697567476855</v>
+        <v>44363.381031365738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
